--- a/DemoReel100/neopixel.xlsx
+++ b/DemoReel100/neopixel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namwookim\Documents\GitHub\arduino\DemoReel100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namwo\Documents\GitHub\arduino\DemoReel100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD4EBD1-C8F0-42F0-8EA1-FD6781501597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B13AF4D-CD64-4059-8214-2472E56D86E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D6140B2-6302-41D0-9D9F-9012501F6EFB}"/>
+    <workbookView xWindow="435" yWindow="4260" windowWidth="18735" windowHeight="13170" xr2:uid="{9D6140B2-6302-41D0-9D9F-9012501F6EFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -87,14 +87,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
@@ -102,7 +96,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="보통" xfId="1" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,7 +412,7 @@
   <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G8" activeCellId="7" sqref="F1 G2 F3 G4 F5 G6 F7 G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -431,28 +425,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>2</v>
       </c>
       <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>4</v>
       </c>
       <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1">
         <v>7</v>
       </c>
       <c r="M1">
@@ -521,28 +515,28 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>9</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>15</v>
       </c>
       <c r="M2">
@@ -611,28 +605,28 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>16</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>19</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>21</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>22</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>23</v>
       </c>
       <c r="M3">
@@ -704,22 +698,22 @@
       <c r="A4">
         <v>24</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>26</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>27</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>28</v>
       </c>
       <c r="F4">
         <v>29</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>30</v>
       </c>
       <c r="H4">
@@ -800,16 +794,16 @@
       <c r="C5">
         <v>34</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>35</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>36</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>37</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>38</v>
       </c>
       <c r="H5">
@@ -881,28 +875,28 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>41</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>42</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>43</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>44</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>45</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>46</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>47</v>
       </c>
       <c r="M6">
@@ -971,28 +965,28 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>48</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>50</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>51</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>52</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>53</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>54</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>55</v>
       </c>
       <c r="M7">
@@ -1061,31 +1055,30 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>56</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>57</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>58</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>59</v>
       </c>
       <c r="E8">
         <v>60</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>61</v>
       </c>
       <c r="G8" s="1">
         <v>62</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>63</v>
       </c>
-      <c r="L8" s="3"/>
       <c r="M8">
         <f t="shared" si="0"/>
         <v>1</v>

--- a/DemoReel100/neopixel.xlsx
+++ b/DemoReel100/neopixel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namwo\Documents\GitHub\arduino\DemoReel100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namwookim\Documents\GitHub\arduino\DemoReel100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B13AF4D-CD64-4059-8214-2472E56D86E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782BAC54-3C2F-4611-819F-5996A323CD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="4260" windowWidth="18735" windowHeight="13170" xr2:uid="{9D6140B2-6302-41D0-9D9F-9012501F6EFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D6140B2-6302-41D0-9D9F-9012501F6EFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,14 +50,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,7 +74,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,24 +92,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,7 +432,7 @@
   <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" activeCellId="7" sqref="F1 G2 F3 G4 F5 G6 F7 G8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,7 +460,7 @@
       <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1">
         <v>5</v>
       </c>
       <c r="G1">
@@ -521,19 +541,19 @@
       <c r="B2">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>13</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>14</v>
       </c>
       <c r="H2">
@@ -608,22 +628,22 @@
       <c r="A3">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>21</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>22</v>
       </c>
       <c r="H3">
@@ -698,19 +718,19 @@
       <c r="A4">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>26</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>27</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>28</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>29</v>
       </c>
       <c r="G4" s="1">
@@ -788,22 +808,22 @@
       <c r="A5">
         <v>32</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>33</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>34</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>36</v>
       </c>
       <c r="F5" s="1">
         <v>37</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>38</v>
       </c>
       <c r="H5">
@@ -878,19 +898,19 @@
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>41</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>42</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>43</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>44</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>45</v>
       </c>
       <c r="G6" s="1">
@@ -971,13 +991,13 @@
       <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>51</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>52</v>
       </c>
       <c r="F7" s="1">
@@ -1073,7 +1093,7 @@
       <c r="F8">
         <v>61</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>62</v>
       </c>
       <c r="H8">
